--- a/datastatic/datasets/online/D_Poverty_Severe_Material_Deprivation_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/D_Poverty_Severe_Material_Deprivation_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Poverty_Severe_Material_Deprivation_EUROSTAT_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Poverty_Severe_Material_Depri" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/D_Poverty_Severe_Material_Deprivation_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/D_Poverty_Severe_Material_Deprivation_EUROSTAT_2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>original_title</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Ireland</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Greece</t>
@@ -296,7 +299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -320,6 +323,10 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -361,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -402,6 +409,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -819,7 +829,9 @@
       <c r="A44" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="14">
+        <v>8.4</v>
+      </c>
       <c r="C44" s="13">
         <v>8.4</v>
       </c>
@@ -829,10 +841,13 @@
       <c r="E44" s="13">
         <v>9.8</v>
       </c>
+      <c r="F44" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" s="13">
         <v>22.2</v>
@@ -849,7 +864,7 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" s="13">
         <v>6.4</v>
@@ -866,7 +881,7 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" s="13">
         <v>4.5</v>
@@ -883,7 +898,7 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="13">
         <v>13.7</v>
@@ -900,7 +915,7 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" s="13">
         <v>11.5</v>
@@ -917,7 +932,7 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" s="13">
         <v>15.4</v>
@@ -934,7 +949,7 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" s="13">
         <v>16.4</v>
@@ -951,7 +966,7 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" s="13">
         <v>13.9</v>
@@ -968,7 +983,7 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" s="13">
         <v>2.0</v>
@@ -985,7 +1000,7 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" s="13">
         <v>19.4</v>
@@ -1002,7 +1017,7 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" s="13">
         <v>8.1</v>
@@ -1019,7 +1034,7 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="13">
         <v>2.5</v>
@@ -1036,7 +1051,7 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" s="13">
         <v>3.6</v>
@@ -1053,7 +1068,7 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="13">
         <v>8.1</v>
@@ -1070,7 +1085,7 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" s="13">
         <v>9.6</v>
@@ -1087,7 +1102,7 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="13">
         <v>22.7</v>
@@ -1104,7 +1119,7 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="13">
         <v>5.8</v>
@@ -1121,7 +1136,7 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" s="13">
         <v>9.0</v>
@@ -1138,7 +1153,7 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="13">
         <v>2.2</v>
@@ -1155,7 +1170,7 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="13">
         <v>0.7</v>
@@ -1172,7 +1187,7 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="13">
         <v>6.1</v>
@@ -1189,7 +1204,7 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="13">
         <v>1.6</v>
@@ -1206,7 +1221,7 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="13">
         <v>1.3</v>
@@ -1223,9 +1238,11 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="14"/>
+        <v>89</v>
+      </c>
+      <c r="B68" s="14">
+        <v>1.3</v>
+      </c>
       <c r="C68" s="13">
         <v>1.3</v>
       </c>
@@ -1235,12 +1252,17 @@
       <c r="E68" s="13">
         <v>0.8</v>
       </c>
+      <c r="F68" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="B69" s="14">
+        <v>35.7</v>
+      </c>
       <c r="C69" s="13">
         <v>35.7</v>
       </c>
@@ -1250,10 +1272,13 @@
       <c r="E69" s="13">
         <v>40.9</v>
       </c>
+      <c r="F69" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="13">
         <v>24.0</v>
@@ -1264,14 +1289,14 @@
       <c r="D70" s="13">
         <v>26.9</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="13">
         <v>43.8</v>
       </c>

--- a/datastatic/datasets/online/D_Poverty_Severe_Material_Deprivation_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/D_Poverty_Severe_Material_Deprivation_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Poverty_Severe_Material_Deprivation_EUROSTAT_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Poverty_Severe_Material_Depri" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>original_title</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Ireland</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Greece</t>
@@ -296,7 +299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -320,6 +323,10 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -361,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -402,6 +409,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -819,7 +829,9 @@
       <c r="A44" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="14">
+        <v>8.4</v>
+      </c>
       <c r="C44" s="13">
         <v>8.4</v>
       </c>
@@ -829,10 +841,13 @@
       <c r="E44" s="13">
         <v>9.8</v>
       </c>
+      <c r="F44" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" s="13">
         <v>22.2</v>
@@ -849,7 +864,7 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" s="13">
         <v>6.4</v>
@@ -866,7 +881,7 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" s="13">
         <v>4.5</v>
@@ -883,7 +898,7 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="13">
         <v>13.7</v>
@@ -900,7 +915,7 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" s="13">
         <v>11.5</v>
@@ -917,7 +932,7 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" s="13">
         <v>15.4</v>
@@ -934,7 +949,7 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" s="13">
         <v>16.4</v>
@@ -951,7 +966,7 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" s="13">
         <v>13.9</v>
@@ -968,7 +983,7 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" s="13">
         <v>2.0</v>
@@ -985,7 +1000,7 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" s="13">
         <v>19.4</v>
@@ -1002,7 +1017,7 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" s="13">
         <v>8.1</v>
@@ -1019,7 +1034,7 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="13">
         <v>2.5</v>
@@ -1036,7 +1051,7 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" s="13">
         <v>3.6</v>
@@ -1053,7 +1068,7 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="13">
         <v>8.1</v>
@@ -1070,7 +1085,7 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" s="13">
         <v>9.6</v>
@@ -1087,7 +1102,7 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="13">
         <v>22.7</v>
@@ -1104,7 +1119,7 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="13">
         <v>5.8</v>
@@ -1121,7 +1136,7 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" s="13">
         <v>9.0</v>
@@ -1138,7 +1153,7 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="13">
         <v>2.2</v>
@@ -1155,7 +1170,7 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="13">
         <v>0.7</v>
@@ -1172,7 +1187,7 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="13">
         <v>6.1</v>
@@ -1189,7 +1204,7 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="13">
         <v>1.6</v>
@@ -1206,7 +1221,7 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="13">
         <v>1.3</v>
@@ -1223,9 +1238,11 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="14"/>
+        <v>89</v>
+      </c>
+      <c r="B68" s="14">
+        <v>1.3</v>
+      </c>
       <c r="C68" s="13">
         <v>1.3</v>
       </c>
@@ -1235,12 +1252,17 @@
       <c r="E68" s="13">
         <v>0.8</v>
       </c>
+      <c r="F68" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="B69" s="14">
+        <v>35.7</v>
+      </c>
       <c r="C69" s="13">
         <v>35.7</v>
       </c>
@@ -1250,10 +1272,13 @@
       <c r="E69" s="13">
         <v>40.9</v>
       </c>
+      <c r="F69" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="13">
         <v>24.0</v>
@@ -1264,14 +1289,14 @@
       <c r="D70" s="13">
         <v>26.9</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="13">
         <v>43.8</v>
       </c>
